--- a/Documenti/UC Gestione Lingua.xlsx
+++ b/Documenti/UC Gestione Lingua.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">NOME</t>
   </si>
@@ -31,13 +31,13 @@
     <t xml:space="preserve">IDENTIFICATORE</t>
   </si>
   <si>
-    <t xml:space="preserve">ID:12</t>
+    <t xml:space="preserve">ID:5</t>
   </si>
   <si>
     <t xml:space="preserve">BREVE DESCRIZIONE</t>
   </si>
   <si>
-    <t xml:space="preserve">Un utente loggato può cambiare la preferenza riguardo la scelta della lingua .</t>
+    <t xml:space="preserve">Un utente loggato può cambiare la preferenza riguardo la scelta della lingua.</t>
   </si>
   <si>
     <t xml:space="preserve">ATTORI PRIMARI</t>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">ATTORI SECONDARI</t>
   </si>
   <si>
+    <t xml:space="preserve">nessuno</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRECONDIZIONI</t>
   </si>
   <si>
@@ -59,7 +62,7 @@
   </si>
   <si>
     <t xml:space="preserve">1. L’utente seleziona il box “Visualizza Profilo” oppure il box “Home”.
-2. L'utente sceglie la preferenza riguardo la lingua attraverso gli appositi selettori.</t>
+2. L'utente sceglie la preferenza riguardo la lingua attraverso l’apposito selettore.</t>
   </si>
   <si>
     <t xml:space="preserve">POSTCONDIZIONI</t>
@@ -192,14 +195,14 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="101.244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.3061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="98.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -243,39 +246,39 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
